--- a/biology/Médecine/1488_en_santé_et_médecine/1488_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1488_en_santé_et_médecine/1488_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1488_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1488_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1488 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1488_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1488_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ferdinand le Catholique autorise les médecins et chirurgiens de Saragosse, en Aragon, à disséquer le corps des malades morts à l'hôpital Nuestra Señora de Gracia[1],[2].
-Fondation à Roubaix en Flandre par Isabeau, fille de Pierre de Roubaix, de l'hôpital Sainte-Élisabeth, pour l'accueil de douze femmes pauvres confiées aux soins des augustines[3].
-L'université de Pavie entretient dix-huit chaires de médecine[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ferdinand le Catholique autorise les médecins et chirurgiens de Saragosse, en Aragon, à disséquer le corps des malades morts à l'hôpital Nuestra Señora de Gracia,.
+Fondation à Roubaix en Flandre par Isabeau, fille de Pierre de Roubaix, de l'hôpital Sainte-Élisabeth, pour l'accueil de douze femmes pauvres confiées aux soins des augustines.
+L'université de Pavie entretient dix-huit chaires de médecine.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1488_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1488_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, à Ferrare, du Commentaire sur l'Antidotaire de Mésué[5],[6] du médecin italien Cristoforo Giorgio degli Onesti (1320-1392[7]).
-Première édition du Livre des simples de Matthaeus Platearius (XIIe siècle[8]).
-Publication des Confabulationes de thermis calderianis, quae in Veronensi agro sunt (« Entretiens sur les thermes de la région de Vérone »), de Giovanni Agostino Panteo, clerc et alchimiste italien[9],[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, à Ferrare, du Commentaire sur l'Antidotaire de Mésué, du médecin italien Cristoforo Giorgio degli Onesti (1320-1392).
+Première édition du Livre des simples de Matthaeus Platearius (XIIe siècle).
+Publication des Confabulationes de thermis calderianis, quae in Veronensi agro sunt (« Entretiens sur les thermes de la région de Vérone »), de Giovanni Agostino Panteo, clerc et alchimiste italien,.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1488_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1488_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Otto Brunfels (mort en 1534), théologien et naturaliste allemand, reçu docteur en médecine à Bâle en 1530, surtout connu comme auteur de l'Herbarum vivae eicones (1530-1536), herbier médicinal illustré par Hans Weiditz (en), probablement élève de Dürer[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Otto Brunfels (mort en 1534), théologien et naturaliste allemand, reçu docteur en médecine à Bâle en 1530, surtout connu comme auteur de l'Herbarum vivae eicones (1530-1536), herbier médicinal illustré par Hans Weiditz (en), probablement élève de Dürer.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1488_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1488_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>William Hobbes (né à une date inconnue), premier chirurgien (Serjeant Surgeon)  de Richard  d'York et des rois d'Angleterre Édouard IV et Richard III, fils de John Hobbes († 1463[11]).
-Jacques Fries (né à une date inconnue), médecin des rois d'Angleterre Édouard IV et Richard III[12].
-Nicolas Viard (né à une date inconnue), docteur en médecine « attaché par le Roi René au service public de la ville d'Angers[13] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>William Hobbes (né à une date inconnue), premier chirurgien (Serjeant Surgeon)  de Richard  d'York et des rois d'Angleterre Édouard IV et Richard III, fils de John Hobbes († 1463).
+Jacques Fries (né à une date inconnue), médecin des rois d'Angleterre Édouard IV et Richard III.
+Nicolas Viard (né à une date inconnue), docteur en médecine « attaché par le Roi René au service public de la ville d'Angers ».</t>
         </is>
       </c>
     </row>
